--- a/projects/10apps/7_realty_scrapping/first.xlsx
+++ b/projects/10apps/7_realty_scrapping/first.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,1481 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>ЖК «Виктория (Мурино)»</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5 этаж из 19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Мурино, проспект Авиаторов Балтики, 5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>70% — комиссия</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16 000 ₽</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>без животных</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>без животных</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>6 часов назад</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>6 часов назад</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/1492929942180747008/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>27 м², студия</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ЖК «Виктория (Мурино)»</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4 этаж из 19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Мурино, проспект Авиаторов Балтики, 7</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>50% — комиссия</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>18 000 ₽</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>без детей и животных</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>без детей и животных</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>7 часов назад</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>7 часов назад</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/7493846169843458304/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>28 м², студия</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ЖК «Девятый вал»</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24 этаж из 25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Мурино, проспект Авиаторов Балтики, 3к1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>17 000 ₽</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>вчера</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>вчера</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/80308666189937665/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>25 м², студия</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ЖК «Мечта»</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11 этаж из 14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Мурино, Привокзальная площадь, 5Ак2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>100% — комиссия</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>18 000 ₽</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Арт. 35096139 Предлагается в аренду студия в Ленинградской области по адресу: п.Мурино, улица Привокзальная дом 5. Новый дом, шаговая доступность до метро. Хорошо развитый район, рядом много магазинов и кафе. Техника: стиральная машина, духовой шкаф,</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Арт. 35096139 Предлагается в аренду студия в Ленинградской области по адресу: п.Мурино, улица Привокзальная дом 5. Новый дом, шаговая доступность до метро. Хорошо развитый район, рядом много магазинов и кафе. Техника: стиральная машина, духовой шкаф, варочная панель, холодильник, стиральная машина. Возможно проживание с животными</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>вчера</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>вчера</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/1804760276140497607/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>32 м², студия</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ЖК «Охтинская дуга»</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11 этаж из 16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Мурино, проспект Авиаторов Балтики, 13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Без комиссии</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>16 000 ₽</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ОТ СОБСТВЕННИКА предлагается в аренду большая уютная студия в пешей доступности от метро Девяткино (10 минут). Сдается на длительный срок. БЕЗ КОМИССИИ. Дом кирпично-монолитный, теплый. Хороший застройщик"Запстрой". Большая лоджия, 2 окна в квартире.</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ОТ СОБСТВЕННИКА предлагается в аренду большая уютная студия в пешей доступности от метро Девяткино (10 минут). Сдается на длительный срок.
+БЕЗ КОМИССИИ.
+Дом кирпично-монолитный, теплый.
+Хороший застройщик"Запстрой".
+Большая лоджия, 2 окна в квартире.
+Есть вся необходимая мебель и техника:
+раскладной диван, кухонный гарнитур, плита, микроволновка, комод, холодильник (в прихожей, не мешает), стол, стулья, шкафы(в прихожей и в комнате), стенка, телевизор.
+В ванной- большая ванна, раковина, зеркало, стиральная машина, унитаз.
+Много места.
+В доме- магазин "Дикси", почта, поликлиника, хозтовары, мебель.
+До метро пешком минут 10.
+Рядом- платформа электричек(20 минут- и вы в зоне лесов и озёр).</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>вчера</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>вчера</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/9078689260782221313/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>25 м², студия</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ЖК «Виктория (Мурино)»</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10 этаж из 18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Мурино, проспект Авиаторов Балтики, 5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Без комиссии</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>20 000 ₽</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Сдается впервые квартира-студия с хорошим ремонтом. Квартира светлая и теплая. К квартире есть вся необходимая мебель. Кухня из массива выбеленной березы со встроенной техникой (духовой шкаф, индукционная плита, вытяжка, большой двухкамерный</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Сдается впервые квартира-студия с хорошим ремонтом. Квартира светлая и теплая.
+К квартире есть вся необходимая мебель.
+Кухня из массива выбеленной березы со встроенной техникой (духовой шкаф, индукционная плита, вытяжка, большой двухкамерный холодильник). Барная стойка с двумя мягкими удобными барными стульями, стол-трансформер (превращается в большой обеденный стол).
+В комнате - двухспальный диван, ЖК телевизор, Wi-fi, большой шкаф, трюмо с пуфом, кухня, журнальный стол, прикроватный светильник.
+В комнате установлены рулонные шторы blackout, полностью блокирующие свет из окна.
+Совмещенный санузел с ванной 170 см и стиральной машиной.
+В прихожей - шкаф-купе с зеркалом.
+Застекленная лоджия со стеллажом для хранения и зоной отдыха.
+В наличии - набор посуды, чайник, пылесос без мешков для сбора пыли.
+В квартире предусмотрено большое количество места для хранения вещей.
+На этаже 7 квартир. Дом оснащен пассажирским и грузовым лифтами.
+Закрытый двор, видеонаблюдение, охрана, диспетчеризация.
+Во дворе большая детская и баскетбольная площадка.
+До метро 3 мин пешком. 1 линия.
+Рядом с домом вся необходимая для жизни инфраструктура: супермаркеты, кафе, банки, магазины, аптеки, салоны красоты и пр.
+От СОБСТВЕННИКА.
+Цена: 20 000 + к/у + залог 100%
+Сдается напрямую с паспортными данными обоих сторон.
+Только для граждан РФ.
+Без животных.
+Агентствам просьба не беспокоить.</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>19 мая (обновлено вчера)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>вчера</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/2468448663642268160/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>27 м², студия</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ЖК «Мечта»</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8 этаж из 17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Мурино, Привокзальная площадь, 5Ак1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>50% — комиссия</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>16 000 ₽</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Сдаётся на длительный срок квартира-студия по адресу: г. Мурино, Привокзальная пл., д. 5. Всеволожский район. До ст.м. Девяткино - 2 мин.пеш. Этаж 8/17. Тип дома - кирпично-монолитный. Площадь квартиры 27 м. Развитая инфраструктура: множество</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Сдаётся на длительный срок квартира-студия по адресу: г. Мурино, Привокзальная пл., д. 5. Всеволожский район.
+До ст.м. Девяткино - 2 мин.пеш.
+Этаж 8/17. Тип дома - кирпично-монолитный.
+Площадь квартиры 27 м.
+Развитая инфраструктура: множество магазинов, кафе, пекарен, школы, детские сады, детские развлекательные центры, салоны красоты. В нескольких минутах транспортом от микрорайона расположены горнолыжные курорты "Охта-парк", "Северный склон", озера Кавголовское и Хепоярви.
+Квартира полностью оборудована всей необходимой мебелью и техникой. Проведен интернет.
+Есть застекленная лоджия.
+Рассматриваются граждане РФ, Беларуси. Можно с детьми. Без животных.
+Арендная плата 16 000 руб/мес + КУ (2000 - 2800 руб./мес.) + залог 16 000 (можно разбить на 2 месяца).</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>19 мая (обновлено сейчас)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>сейчас</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/2477266656786157569/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>25 м², студия</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ЖК «VillaCity»</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3 этаж из 4</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Мурино, Боровая улица, 16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>50% — комиссия</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>17 000 ₽</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Современная, уютная квартира-студия в ЖК "Вилла Сити" у метро Девяткино. Есть вся необходимая мебель и бытовая техника для комфортного проживания. Вы живете в 5 минутах ходьбы от метро, но не в огромном "муравейнике", а малоэтажном доме с закрытой</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Современная, уютная квартира-студия в ЖК "Вилла Сити" у метро Девяткино.
+Есть вся необходимая мебель и бытовая техника для комфортного проживания.
+Вы живете в 5 минутах ходьбы от метро, но не в огромном "муравейнике", а малоэтажном доме с закрытой территорией, с прекрасным видом из окна на тихий, зеленый двор.
+В пешей доступности:
+- продуктовые магазины;
+- салоны красоты;
+- кафе;
+- метро Девяткино 5 минут пешком
+Удобный выезд в СПб и на КАД
+Квартира сдается на длительный срок
++ коммунальные услуги
++ залог</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>19 мая</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>19 мая</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/2212360069088007425/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>25 м², студия</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ЖК «Эланд»</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12 этаж из 22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Мурино, Привокзальная площадь, 3к3</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Без комиссии</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>17 000 ₽</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Сдается только на длительный срок от года и более квартира- студия в новом доме по адресу Привокзальная площадь д.3к.3 в 5 минутах пешком от метро Девяткино. Сдается для граждан РФ или Белоруссии. Без животных. В квартире установлена современная</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Сдается только на длительный срок от года и более квартира- студия в новом доме по адресу Привокзальная площадь д.3к.3 в 5 минутах пешком от метро Девяткино.
+Сдается для граждан РФ или Белоруссии.
+Без животных.
+В квартире установлена современная мебель и техника.
+Новый дом.
+Евроремонт.
+Оформление по договору.
+17000р+ку-от 2500р до 3500р.
+В зависимости от сезона.
++ залог-17000р.
+Без комиссии.</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>19 мая</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>19 мая</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/7093485497928225281/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>27 м², студия</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6 этаж из 14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Мурино, Охтинская аллея, 8</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>50% — комиссия</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>16 000 ₽</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Прекрасная 1к квартира (студия) в новом доме в Мурино: Охтинская аллея, 8 . От метро Девяткино 7минут пешком. Общая 27м, комната 19м, ванна с/у совмещены, лоджия. Мебель бытовая техника, все новое. Есть место в подземном паркинге . Для 1-2 человек.</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Прекрасная 1к квартира (студия) в новом доме в Мурино: Охтинская аллея,  8 . От метро Девяткино 7минут пешком. Общая 27м, комната 19м, ванна с/у совмещены,  лоджия.  Мебель бытовая техника, все новое. Есть место в подземном паркинге . Для 1-2 человек.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>18 мая</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>18 мая</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/3988882784863323648/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>24 м², студия</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ЖК «Мой город»</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4 этаж из 22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Мурино, бульвар Менделеева, 3</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>50% — комиссия</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>18 000 ₽</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Сдается хорошая студия. Все в хорошем состоянии, ремонта не требует. На кухне есть холодильник. Рабочая стиральная машина. Для 1-2 человек, пары.</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Сдается хорошая студия. Все в хорошем состоянии, ремонта не требует. На кухне есть холодильник. Рабочая стиральная машина. Для 1-2 человек, пары.</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>18 мая</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>18 мая</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/8118069943777843712/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>27 м², студия</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Квартал «Солнечный»</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15 этаж из 20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Мурино, бульвар Менделеева, 5к1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>50% — комиссия</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>18 000 ₽</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Сдается уютная и светлая студия. Рядом с домом станция метро, что заметно сокращает время в дороге. Все в отличном состоянии. Есть балкон. Есть хороший холодильник и стиральная машина. Для 1-2 человек, пары.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Сдается уютная и светлая студия. Рядом с домом станция метро, что заметно сокращает время в дороге. Все в отличном состоянии. Есть балкон. Есть хороший холодильник и стиральная машина. Для 1-2 человек, пары.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>18 мая</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>18 мая</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/8353534459383571712/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>30 м², студия</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ЖК «Виктория (Мурино)»</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10 этаж из 22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Мурино, Екатерининская улица, 2</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Без комиссии</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>16 000 ₽</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Сдаётся без комиссии просторная квартира-студия по адресу: Мурино, Екатерининская ул. д. 2 ( Девяткино, 10 минут пешком)  Новый дом, общая площадь 30 м кв  Балкон, этаж 10/22  В наличии современная мебель и бытовая техника  Стоимость 16 000 рублей +</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Сдаётся без комиссии ❗просторная квартира-студия по адресу: Мурино, Екатерининская ул. д. 2 (Ⓜ Девяткино, 10 минут пешком)
+✔ Новый дом, общая
+площадь 30 м кв
+✔ Балкон, этаж 10/22
+✔ В наличии современная мебель и бытовая техника
+✔ Стоимость 16 000 рублей + коммунальные платежи
+✔ Залог-16000р.
+Сдается большая квартира-студия для граждан России и Белоруссии, на длительный срок (от года и более).
+Все есть: новая мебель и вся бытовая техника.
+📺 и другие бытовые принадлежности при необходимости привезут.
+Стоимость 16 000 рублей + коммунальные платежи.
+Без животных ⛔
+Без комиссии ❗
+Все уточняющие вопросы по телефону 👇</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>18 мая</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>18 мая</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/2839422749025520129/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>25 м², студия</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ЖК «Мой город»</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14 этаж из 18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Мурино, проспект Авиаторов Балтики, 1к1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>70% — комиссия</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>15 000 ₽</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Сдается уютная студия в трех минутах пешком от метро Девяткино. Все есть для комфортного проживания. Есть 2 спальных места. Студия сдается для гр. РФ. Стоимость 15000 руб + комм. услуги 2500 руб ( зима). +залог 100% ( можно внести двумя частями).</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Сдается уютная студия в трех минутах пешком от метро Девяткино.
+Все есть для комфортного проживания. Есть 2 спальных места.
+Студия сдается для гр. РФ.
+Стоимость 15000 руб + комм. услуги 2500 руб ( зима). +залог 100% ( можно внести двумя частями).
+Комиссия 10000 руб.</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>17 мая</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>17 мая</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/8290452953936627712/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>30 м², студия</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ЖК «Мой город»</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5 этаж из 17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Мурино, проспект Авиаторов Балтики, 3</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>100% — комиссия</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>15 000 ₽</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Сдаётся милейшая светлая СТУДИЯ рядом с метро Девяткино (3-4минуты пешком). /Есть просторный балкон/ Рядом с домом множество магазинов,лядом Токио Сити,Макдональдс. В квартире сделан хороший ремонт. Бытовая техника вся НОВАЯ</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сдаётся милейшая светлая СТУДИЯ рядом с метро Девяткино (3-4минуты пешком).
+/Есть просторный балкон/
+Рядом с домом множество магазинов,лядом Токио Сити,Макдональдс.
+В квартире сделан хороший ремонт.
+Бытовая техника вся НОВАЯ (холодильник,телевизор,пылесос,утюг,встроенная варочная панель).Новая дорогая и качественная сантехника).
+В период самоизоляции 15. 000Р-далее 20. 000Р/залог можноразбить на 2 месяца!
+Студия сдаётся в ПЕРВЫЙ раз
+</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>17 мая</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>17 мая</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/7202275920955908609/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>22 м², студия</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Квартал «Солнечный»</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8 этаж из 16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Мурино, бульвар Менделеева, 7к2</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>14 000 ₽</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Сдаётся квартира-студия в Девяткино, 22м2, 8 этаж, 7 минут пешком от метро (700 метров). По договору, только до сентября-октября этого года. Заехать можно в ближайшее время. В квартире есть всё необходимое: кровать-кушетка (раздвижная), кухня, стол,</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Сдаётся квартира-студия в Девяткино, 22м2, 8 этаж, 7 минут пешком от метро (700 метров). По договору, только до сентября-октября этого года. Заехать можно в ближайшее время. В квартире есть всё необходимое: кровать-кушетка (раздвижная), кухня, стол, стулья, холодильник, стиральная машина, телевизор, чайник, тостер, микроволновка, шкаф, посуда и столовые приборы. Студия небольшая, но вся мебель подобрана так, что можно освободить большую часть пространства). Квартира будет идеальной для проживания одного человека (хотя с котиком жить веселее) или семейной пары. Имеется большой балкон)
+Стоимость: 14 000 + счётчики (вода и электричество). Залог равен месяцу проживания (можно разбить на пару месяцев).</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>17 мая (обновлено вчера)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>вчера</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/6289067564585939457/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>25 м², студия</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ЖК «Мой город»</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9 этаж из 15</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Мурино, проспект Авиаторов Балтики, 3</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>15 000 ₽</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>На длительный срок сдается большая студия рядом с метро Девяткино (30 кВ.м): - третий дом от метро (пешком ровно 4 мин) - рядом с домом продуктовые/хозяйственные магазины, Токио Сити, Макдональдс - в 10 минут пешком - 2 спортивных зала (Fitness</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>На длительный срок сдается большая студия рядом с метро Девяткино (30 кВ.м):
+- третий дом от метро (пешком ровно 4 мин)
+- рядом с домом продуктовые/хозяйственные магазины, Токио Сити, Макдональдс
+- в 10 минут пешком - 2 спортивных зала (Fitness House, A-fitness)
+- сделан дорогой ремонт
+- в квартире новая бытовая техника - телевизор, холодильник, стиральная машина, встроенная электроплита, пылесос, утюг
+- новая дорогая сантехника - Hansgrohe, Teva
+- окна на солнечную сторону
+В стоимость аренды не входят коммунальные платежи. Сдается первый месяц (из за самоизоляции) - 15 000 р. Далее - 20 000 р. Залог 100% (можно разбить на два месяца).</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>17 мая</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>17 мая</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/3576151260202974465/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>25 м², студия</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ЖК «Виктория (Мурино)»</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12 этаж из 24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Мурино, проспект Авиаторов Балтики, 9</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>17 000 ₽</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Сдаётся Авиаторов Балтики д.9. Сдается просторная, светлая студия в новом доме, ЖК «Виктория», евроремонт, отличное состояние, новая мебель и бытовая техника, стеклопакеты, застекленная лоджия. Очень близко от метро Девяткино - 3 мин. пешком!!!! Для</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Сдаётся Авиаторов Балтики д.9. Сдается просторная, светлая студия в новом доме, ЖК «Виктория», евроремонт, отличное состояние, новая мебель и бытовая техника, стеклопакеты, застекленная лоджия. Очень близко от метро Девяткино - 3 мин. пешком!!!! Для славян, без животных. 17000 + КУ. Залог частями.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>17 мая</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>17 мая</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/4975317974584049665/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>25 м², студия</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ЖК «Виктория (Мурино)»</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2 этаж из 24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Мурино, проспект Авиаторов Балтики, 7</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>50% — комиссия</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>17 000 ₽</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Арт. 15129498 Сдаётся студия на длительный срок в новом доме, Отличное состояние, Современная мебель, Залог можно разделить на две части, Граждане РФ, Можно с Детьми, Без Животных, Просмотры по договоренности.</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Арт. 15129498 Сдаётся студия на длительный срок в новом доме, Отличное состояние, Современная мебель, Залог можно разделить на две части, Граждане РФ, Можно с Детьми, Без Животных, Просмотры по договоренности.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>16 мая</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>16 мая</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/3422984103498283658/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>26 м², студия</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ЖК «Виктория (Мурино)»</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12 этаж из 24</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Мурино, проспект Авиаторов Балтики, 7</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>15 000 ₽</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Сдаётся студия 26 кв.м. на 4 месяца. Адрес пр. Авиаторов Балтики, д.7. До метро Девяткино 5 минут пешком (300м). Продуктовые магазины, кафе, пекарни в шаговой доступности, 10 минут на маршрутке до Ашана и Ленты. Квартира уютная и светлая. Есть всё</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Сдаётся студия 26 кв.м. на 4 месяца. Адрес пр. Авиаторов Балтики, д.7. До метро Девяткино 5 минут пешком (300м). Продуктовые магазины, кафе, пекарни в шаговой доступности, 10 минут на маршрутке до Ашана и Ленты.
+Квартира уютная и светлая. 
+Есть всё необходимое для жизни:
+- стиральная машина
+- вместительный шкаф
+- двуспальная кровать
+- керамическая варочная панель
+- духовой шкаф
+- большой холодильник
+- мультиварка, кухонный комбайн
+- вся необходимая посуда
+- постельное бельё и полотенца
+Цена 15 000 + к/у (летом 1500-2000) + интернет 200 р/месяц
+Залог в размере 1 месяца проживания.
+Оформление по договору. Для 1-2 человек, ответственные, чистоплотные, граждане РФ, без животных.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>16 мая</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>16 мая</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/3043717909077833217/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>22 м², студия</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ЖК «Мечта»</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6 этаж из 15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Мурино, Привокзальная площадь, 5Ак3</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>18 000 ₽</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Сдается студия от собственника 22 м2 на 6м этаже в доме на Привокзальной площади, до метро Девяткино 2 минуты пешком. В квартире есть все необходимое, диван, стол, стенка, кухонный гарнитур с техникой, микроволновая печь, холодильник, стиральная</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Сдается студия от собственника 22 м2 на 6м этаже в доме на Привокзальной площади, до метро Девяткино 2 минуты пешком. В квартире есть все необходимое, диван, стол, стенка, кухонный гарнитур с техникой, микроволновая печь, холодильник, стиральная машина, интернет, оклеены новые обои, поставлена новая душевая кабинка.
+Стоимость 18 000 р. в месяц + ку, залог 100% - можно разбить на 2 месяца.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>15 мая</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>15 мая</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/5447019997605004288/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>25 м², студия</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ЖК «Мой город»</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>11 этаж из 22</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Мурино, Охтинская аллея, 2</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>8 мин.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>18 000 ₽</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>17 000 ₽</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>А ИЗ НАШЕГО ОКНА СТАНЦИЯ МЕТРО ВИДНА Предлагаем арендовать на длительный срок ухоженную светлую студию по адресу: г. Мурино, Охтинская аллея, дом 2. Обратите внимание: ПОВЕЛИТЕЛЬ ТРАНСПОРТА Это звание заслуженно носит каждый житель нашего дома!</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>😎А ИЗ НАШЕГО ОКНА СТАНЦИЯ МЕТРО ВИДНА😎
 Предлагаем арендовать на длительный срок ухоженную светлую студию по адресу: г. Мурино, Охтинская аллея, дом 2. Обратите внимание:
@@ -486,67 +1927,67 @@
 С радостью ответим на ваши вопросы и оперативно организуем просмотр квартиры!</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>7 часов назад</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>7 часов назад</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>15 мая (обновлено вчера)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>вчера</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/4549740870017373185/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>26 м², студия</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>ЖК «Виктория (Мурино)»</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>16 этаж из 24</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 9</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Без комиссии</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>8 мин.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>17 000 ₽</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>Сдается просторная, светлая студия в новом доме, ЖК «Виктория», евроремонт, отличное состояние, новая мебель и бытовая техника, стеклопакеты, застекленная лоджия. Очень близко от метро Девяткино - 3 мин. пешком!!!! Для славян, без животных. 17000 +</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t xml:space="preserve">Сдается просторная, светлая студия в новом доме, ЖК «Виктория», евроремонт, отличное состояние, новая мебель и бытовая техника, стеклопакеты, застекленная лоджия. 
 Очень близко  от метро Девяткино  -  3 мин. пешком!!!!
@@ -557,814 +1998,873 @@
 </t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>вчера</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>вчера</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>14 мая</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>14 мая</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/5149713149188251649/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>23 м², студия</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Квартал «Солнечный»</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>16 этаж из 16</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Мурино, бульвар Менделеева, 7к1</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>15 000 ₽</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>Сдаётся просторная квартира-студия,внутри есть вся необходимая мебель и техника,с панорамным видом из окна и в шаговой доступности от метро. Залог разбивается на части.По желанию клиента привезут микроволновую печь и телевизор. Рассмотрим граждан</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Сдаётся просторная квартира-студия,внутри есть вся необходимая мебель и техника,с панорамным видом из окна и в шаговой доступности от метро.
 Залог разбивается на части.По желанию клиента привезут микроволновую печь и телевизор.
 Рассмотрим граждан РФ:1 человека,пару,семью с ребёнком.Без животных.</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>вчера</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>вчера</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>14 мая</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>14 мая</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/6744792367038066519/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>25 м², студия</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>ЖК «Эланд»</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>8 этаж из 25</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Мурино, Привокзальная площадь, 3к3</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>7 мин.</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>15 000 ₽</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>Сдается студия (24 м кв.) на длительный срок, ст. М "Девяткино" (500 м), с мебелью (двухместный раскладной диван, стол со стульями, подвесная полка для хранения, шкаф Ikea), стиральной машиной, небольшой кухней с плитой, холодильником. Есть сушилка,</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Сдается студия (24 м кв.) на длительный срок, ст. М "Девяткино" (500 м), с мебелью (двухместный раскладной диван, стол со стульями, подвесная полка для хранения, шкаф Ikea), стиральной машиной, небольшой кухней с плитой, холодильником. Есть сушилка, утюг, гладильная доска, эл. чайник, установлен модем для Wi-Fi. В прихожей установлена гардеробная. Застекленная лоджия, закрытый двор, консьерж, в шаговой доступности Лента, Пятерочка, Магнит. Оплата: 15 тыс. рублей + КУ.</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>вчера</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>вчера</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>14 мая</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>14 мая</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/4514148125533179137/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>25 м², студия</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>ЖК «Три кита»</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>10 этаж из 12</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 11/1</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>9 мин.</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>16 000 ₽</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Сдам студию в новом доме,с хорошим ремонтом,есть всё необходимое для комфортного проживания.От метро Девяткино 5 мин.пешком.</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Сдам студию в новом доме,с хорошим ремонтом,есть всё необходимое для комфортного проживания.От метро Девяткино 5 мин.пешком.</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>вчера</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>вчера</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>14 мая</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>14 мая</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/6549784683854391552/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>25 м², студия</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>10 этаж из 22</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Мурино, Охтинская аллея, 2</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Без комиссии</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>8 мин.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>22 000 ₽</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Квартира-студия. 500 метров от метро Девяткино. 10 этаж с лоджией. Есть вся мебель и техника для жизни (диван, шкаф, холодильник, микроволновка, стиральная машина и т.д.). Большая ванна, приличный ремонт. 22.000 р, включая КУ и интернет. Залог 50%.</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Квартира-студия. 500 метров от метро Девяткино. 10 этаж с лоджией. Есть вся мебель и техника для жизни (диван, шкаф, холодильник, микроволновка, стиральная машина и т.д.). Большая ванна, приличный ремонт. 22.000 р, включая КУ и интернет. Залог 50%. Никаких скрытых и дополнительных платежей.</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>13 мая</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>13 мая</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>18 500 ₽</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Квартира-студия. 500 метров от метро Девяткино. 10 этаж с лоджией. Есть вся мебель и техника для жизни (диван, шкаф, холодильник, микроволновка, стиральная машина и т.д.). Большая ванна, приличный ремонт. Магазин Дикси на первом этаже, кафе и</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Квартира-студия. 500 метров от метро Девяткино. 10 этаж с лоджией. Есть вся мебель и техника для жизни (диван, шкаф, холодильник, микроволновка, стиральная машина и т.д.). Большая ванна, приличный ремонт. Магазин Дикси на первом этаже, кафе и магазины в 5тиминутной шаговой доступности. Аренда 18500 + 3500 КУ. 
+Итого 22.000 р, включая КУ, счетчики и интернет. Оплата один раз в месяц одной суммой. 
+Залог 11000 р. Никаких скрытых и дополнительных платежей, сезонных колебаний и прочего.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>13 мая (обновлено 18 мая)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>18 мая</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/7516426310268587265/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>26 м², студия</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>ЖК «Виктория (Мурино)»</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>10 этаж из 25</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Мурино, Екатерининская улица, 2</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>7 мин.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>17 000 ₽</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>Сдается хорошая студия. На дополнительный транспорт тратить деньги не придется, так как рядом станция метро. Сделан хороший ремонт. Имеется балкон. Есть хороший холодильник. Есть замечательная стиральная машина. Для 1-2 человек, пары.</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Сдается хорошая студия. На дополнительный транспорт тратить деньги не придется, так как рядом станция метро. Сделан хороший ремонт. Имеется балкон. Есть хороший холодильник. Есть замечательная стиральная машина. Для 1-2 человек, пары.</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>12 мая</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>12 мая</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/240744413259796224/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>28 м², студия</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>7 этаж из 22</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Мурино, Охтинская аллея, 2</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>8 мин.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>18 000 ₽</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>Сдаем светлую, уютную студию рядом с метро Девяткино (7 мин. пешком). Общая площадь 28 кв.м. Комната 18,8 кв.м, коридор 4 кв.м, сан/уз 3,2 кв.м, балкон 4кв.м. На балконе панорамное остекление в пол, на полу плитка. В квартире есть эл. плита,</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Сдаем светлую, уютную студию рядом с метро Девяткино (7 мин. пешком).
 Общая площадь 28 кв.м. Комната 18,8 кв.м, коридор 4 кв.м, сан/уз 3,2 кв.м, балкон 4кв.м. На балконе панорамное остекление в пол, на полу плитка. В квартире есть эл. плита, холодильник, духовой шкаф, стиральная машина, утюг. Мебель как на фотографиях, нет только детской кроватки и пеленального столика.  Сдается с 25 мая. Просмотр также с 25 мая. Арендная плата 18т.р.+ ку.</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>12 мая</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>12 мая</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/6888647453024362496/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>26 м², студия</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Квартал «Солнечный»</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>13 этаж из 16</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Мурино, бульвар Менделеева, 7к2</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>9 мин.</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>16 000 ₽</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Сдаю квартиру-студию в 7 минутах от метро Девяткино . В квартире есть всё необходимое для проживания.</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Сдаю квартиру-студию в 7 минутах от метро Девяткино . В квартире есть всё необходимое для проживания.</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>11 мая (обновлено 16 мая)</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>16 мая</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/5100785485935247361/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>27 м², студия</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ЖК «Мой город»</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14 этаж из 17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Мурино, Охтинская аллея, 4</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Без комиссии</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>19 000 ₽</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>11 мая (обновлено 17 мая)</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>17 мая</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/4107669272965207808/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>25 м², студия</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ЖК «Мой город»</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14 этаж из 21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Мурино, Охтинская аллея, 4</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>50% — комиссия</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>18 000 ₽</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Сдаю квартиру-студию в 7 минутах от метро Девяткино . В квартире есть всё необходимое для проживания.</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Сдаю квартиру-студию в 7 минутах от метро Девяткино . В квартире есть всё необходимое для проживания.</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>11 мая (обновлено 4 часа назад)</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>4 часа назад</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>https://realty.yandex.ru/offer/5100785485935247361/?isExact=YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Сдается светлая и уютная квартира на длительный срок. В квартире есть необходимая бытовая техника: холодильник, плита, стиральная машина. В непосредственной близости находятся: супермаркеты, кафе, рестораны. Метро "Девяткино" в 5 минутах ходьбы от</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Сдается светлая и уютная квартира на длительный срок. В квартире есть необходимая бытовая техника: холодильник, плита, стиральная машина. В непосредственной близости находятся: супермаркеты, кафе, рестораны. Метро "Девяткино" в 5 минутах ходьбы от дома. Оплата комиссионного вознаграждения по факту заселения!</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>11 мая</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>11 мая</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/24622132073125377/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>27 м², студия</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ЖК «Мечта»</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8 этаж из 17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Мурино, Привокзальная площадь, 5Ак1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>15 000 ₽</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Сдам студию сразу (200м) у метро Девяткино. Квартира тёплая, солнечная (есть шторы блек-аут). Окна во двор - ж. д. не слышно. В квартире двуспальная кровать, мебель для хранения и кухонный гарнитур. А также необходимая техника - холодильник,</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сдам студию сразу (200м) у метро Девяткино. Квартира тёплая, солнечная (есть шторы блек-аут). Окна во двор - ж. д. не слышно. В квартире двуспальная кровать, мебель для хранения и кухонный гарнитур. А также необходимая техника - холодильник, стиральная машина. Ку в арендную плату не входят. С сентября возможно увеличение платы, но не более, чем на 2000 (пропишем в договоре). Залог 15000. Рассмотрим одного или двоих без животных. На длительный срок. Рассмотрим жильцов на срок от 2х месяцев с повышением арендной платы. </t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>11 мая</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>11 мая</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/1439291303227485184/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>27 м², студия</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Квартал «Солнечный»</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5 этаж из 16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Мурино, бульвар Менделеева, 7к1</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>15 000 ₽</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Срочно сдаётся квартира-студия площадью 27 м2 на длительный срок по договору. Пятый этаж 16-этажного дома; 5 мин.ходьбы до метро. В квартире диван, телевизор, холодильник, встроенный шкаф, варочная панель, микроволновка, чайник, комод, духовой шкаф,</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Срочно сдаётся квартира-студия площадью 27 м2 на длительный срок по договору. Пятый этаж 16-этажного дома; 5 мин.ходьбы до метро. В квартире диван, телевизор, холодильник, встроенный шкаф, варочная панель, микроволновка, чайник, комод, духовой шкаф, вытяжка, стол со стульями, гладильная доска, сушилка для белья). Лоджия. Рядом школа, детский сад, магазины. Предпочтение семейной паре славян, можно с ребенком. Без животных. Цена до сентября 15000 + КУ. С октября 19000+КУ. Все вопросы обсуждаемы. Как вариант возможно проживание до сентября-октября. </t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>11 мая</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>11 мая</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/4534425476330659329/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>30 м², студия</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ЖК «Мечта»</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5 этаж из 15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Мурино, Привокзальная площадь, 5Ак3</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>50% — комиссия</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>18 000 ₽</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Сдается квартира студия в новом кирпичном доме, в квартире евроремонт, современная мебель, все необходимое для проживания есть.</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Сдается квартира студия в новом кирпичном доме, в квартире евроремонт, современная мебель, все необходимое для проживания есть.</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>10 мая</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>10 мая</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/3353834019914551296/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>26 м², студия</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ЖК «Виктория (Мурино)»</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15 этаж из 24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Мурино, проспект Авиаторов Балтики, 5</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>20 000 ₽</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>9 мая</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>9 мая</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/6543073316332532993/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>25 м², студия</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ЖК «Мой город»</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>14 этаж из 21</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Мурино, Охтинская аллея, 4</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>50% — комиссия</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>9 мин.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>18 000 ₽</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Сдается светлая и уютная квартира на длительный срок. В квартире есть необходимая бытовая техника: холодильник, плита, стиральная машина. В непосредственной близости находятся: супермаркеты, кафе, рестораны. Метро "Девяткино" в 5 минутах ходьбы от</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Сдается светлая и уютная квартира на длительный срок. В квартире есть необходимая бытовая техника: холодильник, плита, стиральная машина. В непосредственной близости находятся: супермаркеты, кафе, рестораны. Метро "Девяткино" в 5 минутах ходьбы от дома. Оплата комиссионного вознаграждения по факту заселения!</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>11 мая</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>11 мая</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>https://realty.yandex.ru/offer/24622132073125377/?isExact=YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>27 м², студия</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ЖК «Мечта»</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8 этаж из 17</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Мурино, Привокзальная площадь, 5Ак1</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>5 мин.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>15 000 ₽</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Сдам студию сразу (200м) у метро Девяткино. Квартира тёплая, солнечная (есть шторы блек-аут). Окна во двор - ж. д. не слышно. В квартире двуспальная кровать, мебель для хранения и кухонный гарнитур. А также необходимая техника - холодильник,</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Сдам студию сразу (200м) у метро Девяткино. Квартира тёплая, солнечная (есть шторы блек-аут). Окна во двор - ж. д. не слышно. В квартире двуспальная кровать, мебель для хранения и кухонный гарнитур. А также необходимая техника - холодильник, стиральная машина. Ку в арендную плату не входят. С сентября возможно увеличение платы, но не более, чем на 2000 (пропишем в договоре). Залог 15000. Рассмотрим одного или двоих без животных. На длительный срок. Рассмотрим жильцов на срок от 2х месяцев с повышением арендной платы. </t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>11 мая</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>11 мая</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>https://realty.yandex.ru/offer/1439291303227485184/?isExact=YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>27 м², студия</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Квартал «Солнечный»</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5 этаж из 16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Мурино, бульвар Менделеева, 7к1</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>15 000 ₽</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Срочно сдаётся квартира-студия площадью 27 м2 на длительный срок по договору. Пятый этаж 16-этажного дома; 5 мин.ходьбы до метро. В квартире диван, телевизор, холодильник, встроенный шкаф, варочная панель, микроволновка, чайник, комод, духовой шкаф,</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Срочно сдаётся квартира-студия площадью 27 м2 на длительный срок по договору. Пятый этаж 16-этажного дома; 5 мин.ходьбы до метро. В квартире диван, телевизор, холодильник, встроенный шкаф, варочная панель, микроволновка, чайник, комод, духовой шкаф, вытяжка, стол со стульями, гладильная доска, сушилка для белья). Лоджия. Рядом школа, детский сад, магазины. Предпочтение семейной паре славян, можно с ребенком. Без животных. Цена до сентября 15000 + КУ. С октября 19000+КУ. Все вопросы обсуждаемы. Как вариант возможно проживание до сентября-октября. </t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>11 мая</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>11 мая</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>https://realty.yandex.ru/offer/4534425476330659329/?isExact=YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>30 м², студия</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ЖК «Мечта»</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5 этаж из 15</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Мурино, Привокзальная площадь, 5Ак3</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>50% — комиссия</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>4 мин.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>18 000 ₽</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Сдается квартира студия в новом кирпичном доме, в квартире евроремонт, современная мебель, все необходимое для проживания есть.</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Сдается квартира студия в новом кирпичном доме, в квартире евроремонт, современная мебель, все необходимое для проживания есть.</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>10 мая</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>10 мая</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>https://realty.yandex.ru/offer/3353834019914551296/?isExact=YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>26 м², студия</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>ЖК «Виктория (Мурино)»</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>15 этаж из 24</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Мурино, проспект Авиаторов Балтики, 5</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>5 мин.</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>20 000 ₽</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>9 мая</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>9 мая</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>https://realty.yandex.ru/offer/6543073316332532993/?isExact=YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>25 м², студия</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>ЖК «Виктория (Мурино)»</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>22 этаж из 22</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Мурино, Екатерининская улица, 6к1</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>16 000 ₽</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>ДЕВЯТКИНО 400 метров от метро - это 6 минут ходьбы! От собственника, на длительный срок сдается просторная видовая студия 25 м (22 этаж из 22 жилых, соседей не слышно от слова совсем) перед окнами высотной застройки нет, каждый вечер отличный вид на</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>ДЕВЯТКИНО 400 метров от метро - это 6 минут ходьбы! От собственника, на длительный срок сдается просторная видовая студия 25 м  (22 этаж из 22 жилых, соседей не слышно от слова совсем) перед окнами высотной застройки нет, каждый вечер отличный вид на закат. 
 Теплая квартира, имеется все необходимое для проживания. Ремонт делался для себя.
@@ -1374,262 +2874,329 @@
 Посредники и прочая нечисть - лесом.</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>9 мая (обновлено 13 мая)</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>13 мая</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/8729600207674750209/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>29 м², студия</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>15 этаж из 15</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Мурино, Охтинская аллея, 8</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>15 000 ₽</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>Арт. 34434236 Сдаётся просторная светлая уютная студия на длительный срок. Новый дом. ЖК "Мой город". Сдается впервые. Общая площадь 29 кв.м. Есть большая застеклённая лоджия в плитке. На лоджии столик и 2 стульчика для отдыха. Панорамные окна. В</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Арт. 34434236 Сдаётся просторная светлая уютная студия на длительный срок. Новый дом. ЖК "Мой город". Сдается впервые. Общая площадь 29 кв.м. Есть большая застеклённая лоджия в плитке. На лоджии столик и 2 стульчика для отдыха. Панорамные окна. В комнате линолеум. Есть все необходимое оборудование и мебель для комфортного проживания. Входная дверь с шумоизоляцией. Окна на юго-запад. Подключен интернет.  Совмещенный санузел, душевая кабина. Большая гардеробная и угловой вместительный шкаф для одежды. Микроволновка. Сушилка для белья.  Метро Девяткино в пешей доступности, 8 мин. пешком. Развитая инфраструктура. Для граждан РФ, славянской внешности. Можно с ребенком. Можно с маленькой собачкой. Залог можно разделить на 2 части. Просмотры по договоренности. Звоните, квартира ждет именно Вас.</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Арт. 34434236 Сдаётся просторная светлая уютная студия на длительный срок. Новый дом. ЖК "Мой город". Сдается впервые. Общая площадь 29 кв.м. Есть большая застеклённая лоджия в плитке. На лоджии столик и 2 стульчика для отдыха. Панорамные окна. В комнате линолеум. Есть все необходимое оборудование и мебель для комфортного проживания. Бонус-комплект постельного белья. Входная дверь с шумоизоляцией. Окна на юго-запад. Подключен интернет.  Совмещенный санузел, душевая кабина. Большая гардеробная и угловой вместительный шкаф для одежды. Микроволновка. Сушилка для белья.  Метро Девяткино в пешей доступности, 8 мин. пешком. Развитая инфраструктура. Для граждан РФ, славянской внешности. Можно с ребенком. Можно с маленькой собачкой. Залог можно разделить на 2 части. Просмотры по договоренности. Звоните, квартира ждет именно Вас.</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>8 мая (обновлено вчера)</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>вчера</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/3422984049273899208/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>29 м², студия</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ЖК «Охтинская дуга»</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3 этаж из 19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Мурино, проспект Авиаторов Балтики, 13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>50% — комиссия</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>18 000 ₽</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Сдаётся Квартира- студия. В новом доме не далеко от метро. В Квартире свежий дизайнерский ремонт. Встроенная бытовая техника , варочная панель, холодильник, стиральная машина, без телевизора, микроволновая печь. Сдаётся на длительный срок для людей</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Сдаётся Квартира- студия. В новом доме не далеко от метро. В Квартире свежий дизайнерский ремонт. Встроенная бытовая техника , варочная панель, холодильник, стиральная машина, без телевизора, микроволновая печь. 
+Сдаётся на длительный срок для людей славянской внешности, для девушки, женщины, пары, НЕКУР-
+ЯЩИХ!!!</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>8 мая (обновлено 19 мая)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>19 мая</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>https://realty.yandex.ru/offer/2717342741929880320/?isExact=YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>26 м², студия</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>ЖК «Девятый вал»</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>20 этаж из 22</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 3к1</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Без комиссии</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>20 000 ₽</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>Сдается на длительный срок квартира-студия в пос. Мурино, кирпично-монолитном доме на улице Авиаторов Балтики дом 3 корп. 1 ( ЖК "Девятый вал") в пяти минутах ходьбы от метро Новое Девяткино. Квартира видовая на 20 этаже, общей площадью 26 кв.м.,</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>Сдается на длительный срок квартира-студия в пос. Мурино, кирпично-монолитном доме на улице Авиаторов Балтики дом 3 корп. 1 ( ЖК "Девятый вал") в пяти минутах ходьбы от метро Новое Девяткино. Квартира видовая на 20 этаже, общей площадью 26 кв.м., комната 18 кв.м., совмещенный санузел и застекленная лоджия. В квартире выполнен евроремонт. Вся мебель новая. Встроенная кухня с бытовой техникой, шкаф, большой холодильник, диван двухспальный, прихожая, в ванной комнате душевая кабина и стиральная машина. Рядом у дома много супермаркетов, пекарни, кафе, фитнес клубы и др. Квартира сдается на длительный срок.  Залог можно разбить на 2 месяца. Арендная плата плюс коммунальные платежи.</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>7 мая (обновлено 13 мая)</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>13 мая</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/5334258689046680576/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>28 м², студия</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>ЖК «Виктория (Мурино)»</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>9 этаж из 22</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>Мурино, Екатерининская улица, 6к1</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Без комиссии</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>20 000 ₽</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>От собственника,без комиссии. Авиаторов Балтики 7.Сдается квартира , на длительный срок, в новом доме ЖК Виктория,от компании МАВИС. Не сдавалась,в квартире не жили, сделан современный ремонт качественными материалами. Техника и мебель,новые.Кухня с</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>От собственника,без комиссии. Авиаторов Балтики 7.Сдается квартира , на длительный срок, в новом доме ЖК Виктория,от компании МАВИС. Не сдавалась,в квартире не жили, сделан современный  ремонт качественными материалами. Техника и мебель,новые.Кухня с хорошей системой открывания. Удобные шкафы,2 штанги и с полками. Есть микроволновка,духовка,вытяжка,телевизор,варочная поверхность,холодильник,стиральная машинка,чайник. Застекленная лоджия,окно во двор,на запад.Изюминка квартиры,близость к метро Девяткино,пешком 3 минуты. Адекватный собственник. Сдается на длительный срок,паре или 1 человеку,без вредных привычек. Без комиссии! Я собственник.20+ку,залог 20,можно частями. Возможен не только онлайн показ,но и в живую покажу!!! Как, кому удобно!</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>7 мая</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>7 мая</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>От собственника,без комиссии. Авиаторов Балтики 7.Сдается квартира , на длительный срок, в новом доме ЖК Виктория,от компании МАВИС. Не сдавалась,в квартире не жили, сделан современный  ремонт качественными материалами. Техника и мебель,новые.Кухня с хорошей системой открывания.В санузле теплые полы. Удобные шкафы,2 штанги и с полками. Есть микроволновка,духовка,вытяжка,телевизор,варочная поверхность,холодильник,стиральная машинка,чайник. Застекленная лоджия,окно во двор,на запад.Изюминка квартиры,близость к метро Девяткино,пешком 3 минуты. Адекватный собственник. Сдается на длительный срок,паре или 1 человеку,без вредных привычек. Без комиссии! Я собственник.20+ку,залог 20,можно частями. Возможен не только онлайн показ,но и в живую покажу!!! Как, кому удобно!</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>7 мая (обновлено 15 мая)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>15 мая</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/7408302640298251008/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>22 м², студия</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>17 этаж из 22</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Мурино, бульвар Менделеева, 3</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>8 мин.</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>13 000 ₽</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>Сдаётся на длительный срок Отличная квартира с просторным санузлом. У квартиры удачное местоположение и это подтверждается тремя очевидными фактами: 1. Шаговая доступность до станции метро Девяткино - 5 минуты шагом! 2. Отличная инфраструктура -</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Сдаётся на длительный срок
 Отличная квартира с просторным санузлом.
@@ -1641,63 +3208,63 @@
 Звоните!</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>7 мая</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>7 мая</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/519340390823574784/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>23 м², студия</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>22 этаж из 24</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Мурино, бульвар Менделеева, 3</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>8 мин.</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>15 000 ₽</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>14 000 ₽</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t xml:space="preserve">Без комиссии. Сдаётся квартира - студия, расположенная по адресу: бульвар Менделеева д.3 ( Девяткино - 400м, 4 мин пешком.)  Новый дом, общая площадь 23 м кв  Застекленная лоджия, этаж 22/24  Новая современная мебель и бытовая техника в наличии </t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t xml:space="preserve">Без комиссии.
 Сдаётся квартира - студия, расположенная по адресу:
@@ -1706,11 +3273,11 @@
 ✔ Новый дом, общая площадь 23 м кв
 ✔ Застекленная лоджия, этаж 22/24
 ✔ Новая современная мебель и бытовая техника в наличии
-✔ Стоимость 15 000 рублей + коммунальные платежи
-✔ Залог 15000 рублей
+✔ Стоимость 14 000 рублей + коммунальные платежи
+✔ Залог 14000 рублей
 Сдается отличная квартира - студия с новым ремонтом и отличным видом, полностью укомплектованная всем необходимым для комфортного проживания (есть холодильник, стиральная машина, электроплита, вытяжка, микроволновая печь, полноценная ванная, диван, шкаф, кухонный гарнитур, большая лоджия).
 Квартира сдаётся для граждан России и Белоруссии, на длительный срок, от года и более.
-Стоимость 15000 рублей + коммунальные платежи + залог.
+Стоимость 14000 рублей + коммунальные платежи + залог.
  Без животных ⛔
 До центра города 20 мин. на метро без пересадок. Выезд на КАД в 5 мин.
 ВСЕ ФОТО РЕАЛЬНЫЕ ИМЕННО ЭТОЙ КВАРТИРЫ!!!
@@ -1718,194 +3285,194 @@
 </t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>6 мая (обновлено 11 часов назад)</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>11 часов назад</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>6 мая (обновлено 19 мая)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>19 мая</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/5708278128593959681/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>25 м², студия</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>15 этаж из 24</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>Мурино, Охтинская аллея, 8</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>15 000 ₽</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>Сдаётся комфортная ,светлая студия. 15к+ку ,залог 100% ,разбивается на 2 месяца. До метро 7 минут пешком ,в соседнем доме Дикси , при выходе из подъезда шаверма 24/7 (сейчас не работает) ,до мака 5 минут. Есть подземный паркинг и всегда есть</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>Сдаётся комфортная ,светлая студия. 
 15к+ку ,залог 100% ,разбивается на 2 месяца. До метро 7 минут пешком ,в соседнем доме Дикси , при выходе из подъезда шаверма 24/7 (сейчас не работает) ,до мака 5 минут. Есть подземный паркинг и всегда есть свободные парковочные места во дворе.</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>6 мая (обновлено 8 мая)</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>8 мая</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/3428210276021511937/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>24,8 м², студия</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>13 этаж из 18</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 3</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>8 мин.</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>18 000 ₽</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Арт. 9139612 Сдается на длительный срок студия на 13 этаже 18 этажного нового дома, с хорошим ремонтом и с мебелью, есть необходимая техника- холодильник, стиральная машина, кухня встроенная. Есть лоджия застекленная . От метро 5 мин. пешком. Один</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Арт. 9139612 Сдается на длительный срок студия на 13 этаже 18 этажного нового дома, с хорошим ремонтом и с мебелью, есть необходимая техника- холодильник, стиральная машина, кухня встроенная. Есть лоджия застекленная . От метро 5 мин. пешком. Один собственник, очень приятная дама. Залоговую сумму можно поделить на 2 части</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>5 мая</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>5 мая</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/2696348824391259047/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>21 м², студия</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>9 этаж из 22</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>Мурино, бульвар Менделеева, 3</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Без комиссии</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>8 мин.</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>18 000 ₽</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>100% — комиссия</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>15 000 ₽</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>Сдается светлая квартира-студия! До метро девяткино 5 мин. пешком. В квартире вся необходимая мебель: раскладной диван, шкаф, комод. +вместительная антресоль На кухне варочная панель, вытяжка, холодильник. Есть посуда. Удобная обеденная зона (барная</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>Сдается светлая квартира-студия!
 До метро девяткино 5 мин. пешком. 
@@ -1920,67 +3487,67 @@
 Посмотреть можно в любое время! Звоните, пишите.</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>4 мая (обновлено 11 мая)</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>11 мая</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>4 мая (обновлено 19 мая)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>19 мая</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/8210362323041968640/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>32 м², студия</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>ЖК «Виктория (Мурино)»</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>14 этаж из 21</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 9к3</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>40% — комиссия</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>9 мин.</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>18 000 ₽</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>Предлагается в аренду новая студия в теплом недавно сданном доме в пешей доступности от метро Девяткино (5 минут). Сдается на длительный срок. Студия большая! Сдается впервые, никто не жил. В студии есть раскладной диван, кухонный гарнитур, стол,</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>Предлагается в аренду новая студия в теплом недавно сданном доме в пешей доступности от метро Девяткино (5 минут). Сдается на длительный срок.
 Студия большая!
@@ -1990,63 +3557,63 @@
 Район с развитой инфраструктурой, рядом есть много магазинов.</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>2 мая</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>2 мая</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/8249824761226601729/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>27 м², студия</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>ЖК «Виктория (Мурино)»</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>15 этаж из 24</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 7</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>6 мин.</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>16 000 ₽</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>!!! Без комиссии !!! !!! Я собственник !!!  Сдам видовую квартиру-студию от 3х месяцев.  До ст. метро Девяткино 300 метров - первый дом от метро. В квартире есть все необходимое: современная кухня, стиральная машина, варочная поверхность, духовой</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>!!! Без комиссии !!!
 !!! Я собственник !!!
@@ -2065,467 +3632,467 @@
 Остались вопросы - пишите, звоните.</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>2 мая</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>2 мая</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/8648339990552665089/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>27 м², студия</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>8 этаж из 24</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Мурино, Охтинская аллея, 8</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>60% — комиссия</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>16 000 ₽</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>У метро Девяткино сдается 1к квартира-студия 27м Новый дом квартира 27м студия ванна с/у совмещены прихожая Новая современная мебель в прихожей шкаф -купе лоджия 8/24 этажного дома есть место в паркинге</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>У метро Девяткино сдается 1к квартира-студия 27м Новый дом квартира 27м студия ванна с/у совмещены прихожая Новая современная мебель в прихожей шкаф -купе
 лоджия 8/24 этажного дома есть место в паркинге</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>2 мая</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>2 мая</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/4353591297782496256/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>25 м², студия</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Квартал «Солнечный»</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>15 этаж из 16</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>Мурино, бульвар Менделеева, 9к1</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Без комиссии</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>17 000 ₽</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>От собственника, агентам просьба не беспокоить. Сдаем квартиру-студию с просторной застекленной лоджией. Стоимость: 17 000 + КУ + интернет (400р) + залог за один месяц (можно разбить на две части). Студия расположена в коротких 10 минутах ходьбы от</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">От собственника, агентам просьба не беспокоить.
-Сдаем квартиру-студию с просторной застекленной лоджией.
-Стоимость: 17 000 + КУ + интернет (400р) + залог за один месяц (можно разбить на две части). 
-Студия расположена в коротких 10 минутах ходьбы от метро Девяткино на бульваре Менделеева. В минуте ходьбы Магнит, Дикси и не только! В квартире есть все необходимое для жизни: большой раскладной диван, стиральная машина, холодильник, плита, вытяжка, мультиварка, кофеварка, кофемолка, микроволновка, посуда, пылесос, утюг и гладильная доска, большой шкаф, комоды и стенка, ксерокс.  Балкон большой и просторный (6 кв.метров), там есть еще один раскладной диван и столик, в теплое время года используем его как отдельную комнату. В шкафу на балконе останется часть наших вещей и цветы, их нужно будет поливать. 
-Сдаем одному или двум людям.  Можно курящим. 
-Надеемся как можно скорее найти идеального жильца!
-</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>30 апреля (обновлено 8 часов назад)</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>8 часов назад</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Сдам квартиру-студию с балконом на бульваре Менделеева. До метро Девяткино 10 минут пешком. В квартире есть все необходимое для жизни: - стиральная машина, холодильник, плита, вытяжка, мультиварка, кофеварка, кофемолка, микроволновка, ксерокс,</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Сдам квартиру-студию с балконом на бульваре Менделеева.
+До метро Девяткино 10 минут пешком. В квартире есть все необходимое для жизни: 
+- стиральная машина, холодильник, плита, вытяжка, мультиварка, кофеварка, кофемолка, микроволновка, ксерокс, пылесос, утюг и гладильная доска;
+- большой раскладной диван, большой шкаф, комоды и стенка, посуда. Балкон застекленный, с панорамными окнами, большой и просторный, там есть еще один раскладной диван и столик, в теплое время года используем его как отдельную комнату. 
+Сдается на длительный срок по договору одному или двум людям. 
+Стоимость: 17 000 + КУ + интернет (400р) + залог за один месяц (можно разбить на две части).</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>30 апреля (обновлено 18 мая)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>18 мая</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/5543873839707091457/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>25,5 м², студия</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>ЖК «Мечта»</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>13 этаж из 23</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>Мурино, Привокзальная площадь, 5Ак5</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>30% — комиссия</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>5 мин.</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>50% — комиссия</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t>15 000 ₽</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Эксклюзивное предложение квартиры студии площадью 25,2 м + лоджия с красивым видом, где можно удобно разместиться летом. Оснащена всей необходимой мебелью и техникой: просторный двуспальный диван, шкаф-гардеробная - очень вместительный! Есть</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Эксклюзивное предложение квартиры студии площадью 25,2 м² + лоджия с красивым видом, где можно удобно разместиться летом.
-Оснащена всей необходимой мебелью и техникой: просторный двуспальный диван, шкаф-гардеробная - очень вместительный! Есть микроволновка, чайник и даже духовка. 
-Санузел с ванной и нишей под принадлежности
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Эксклюзивное предложение квартиры студии площадью 25,5 м + лоджия с красивым видом, где можно удобно разместиться летом. Оснащена всей необходимой мебелью и техникой: просторный двуспальный диван, шкаф-гардеробная с зеркалом во весь рост - очень</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Эксклюзивное предложение квартиры студии площадью 25,5 м² + лоджия с красивым видом, где можно удобно разместиться летом.
+Оснащена всей необходимой мебелью и техникой: просторный двуспальный диван, шкаф-гардеробная с зеркалом во весь рост - очень вместительный! Всё в хорошем состоянии
+Есть микроволновка, чайник и даже духовка. 
+Санузел с ванной и нишей под принадлежности - очень удобно!
 Красивая, просторная и уютная квартира сделает вашу жизнь в восточном Мурино комфортной.
-Менее 5 минут пешком до метро Девяткино или 10-15 минут на транспорте, до Гражданского проспекта или метро Проспект Просвещения. Множество небольших магазинов, парикмахерские, кафе и рестораны. А главное отличное расположение в первой линии от метро.
-Коммунальные услуги не входят в стоимость.
+3 минуты пешком до метро Девяткино или 10-15 минут на транспорте, до Гражданского проспекта или метро Проспект Просвещения. Множество небольших магазинов, парикмахерские, кафе и рестораны. А главное - отличное расположение в первой линии от метро.
+Коммунальные услуги не входят в стоимость, но они очень демократичны, к тому же вода по счётчикам
 Залог можно разбить на 2 части. Просмотры возможны в любое время.
-Добавьте объявление в закладки, лучше всё равно не найдёте.</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>29 апреля (обновлено 12 мая)</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>12 мая</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
+На все вопросы отвечу по телефону. Добавьте объявление в закладки, лучше всё равно не найдёте!</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>29 апреля (обновлено 18 мая)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>18 мая</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/2728412349130765313/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>25 м², студия</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>ЖК «Виктория (Мурино)»</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>12 этаж из 23</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 5</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>5 мин.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
         <is>
           <t>17 000 ₽</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>Аренда студия рядом с метро ДевяткиноЛенинградская область Мурино, Девяткино ст.м Девяткино 5 минут пешкомпр-кт Авиаторов Балтики, д. 5ЖК "Виктория" Мавис На длительный срок17.000 + ку 2000В квартире имеется все необходимоеВместительный</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>Аренда студия рядом с метро ДевяткиноЛенинградская область Мурино, Девяткино ст.м Девяткино 5 минут пешкомпр-кт Авиаторов Балтики, д. 5ЖК "Виктория" Мавис На длительный срок17.000 + ку 2000В квартире имеется все необходимоеВместительный шкафТелевизор, холодильник, микроволновка, стиральная машина, плитаОтличный ремонтКвартира чистая, светлая, солнечная и очень теплая.Закрытый охраняемый двор.Вся инфраструктура в непосредственной близости: школа, детский сад, торговые и развлекательные центры, кинотеатры и рестораны, магазины и гипермаркеты.Ждем граждан РФ, без животных.Номер объекта: #5/723261/82</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>29 апреля (обновлено 30 апреля)</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>30 апреля</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/4800544975684269659/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>27 м², студия</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>ЖК «Виктория (Мурино)»</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>16 этаж из 21</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>Мурино, Екатерининская улица, 6к1</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
         <is>
           <t>17 000 ₽</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>Аренда студия рядом с метро ДевяткиноЛенинградская область Мурино, Девяткино ст.м Девяткино 5 минут пешкомул. Екатерининская, д. 6 корп. 1ЖК "Виктория" Мавис На длительный срок17.000 + ку 2000В квартире имеется все необходимоеВместительный</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>Аренда студия рядом с метро ДевяткиноЛенинградская область Мурино, Девяткино ст.м Девяткино 5 минут пешкомул. Екатерининская, д. 6 корп. 1ЖК "Виктория" Мавис На длительный срок17.000 + ку 2000В квартире имеется все необходимоеВместительный шкафТелевизор, холодильник, микроволновка, стиральная машина, плитаОтличный ремонтКвартира чистая, светлая, солнечная и очень теплая.Вся инфраструктура в непосредственной близости: школа, детский сад, торговые и развлекательные центры, кинотеатры и рестораны, магазины и гипермаркеты.Ждем граждан РФ, без животных.Номер объекта: #5/723260/82</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>29 апреля (обновлено 30 апреля)</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>30 апреля</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/4800544975684269660/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>26 м², студия</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>ЖК «Виктория (Мурино)»</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>16 этаж из 21</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 7</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>6 мин.</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
         <is>
           <t>17 000 ₽</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>Сдается светлая студия. Метро совсем близко. Все в отличном состоянии, ремонта не требует. Есть балкон. Есть мебель и бытовая техника. Для 1-2 человек, пары.</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>Сдается светлая студия. Метро совсем близко. Все в отличном состоянии, ремонта не требует. Есть балкон. Есть мебель и бытовая техника. Для 1-2 человек, пары.</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>28 апреля</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>28 апреля</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M55" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/2439122230293099520/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>27 м², студия</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>ЖК «Виктория (Мурино)»</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>16 этаж из 24</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>Мурино, Екатерининская улица, 6к1</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
         <is>
           <t>17 000 ₽</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>СДАМ СОБСТВЕННИК, БЕЗ КОМИССИИ!!! Первый ЖК от метро Девяткино. Сдам студию 27м2 Есть бесплатный автобус до Ленты. Техника: холодильник, стиральная машина, микроволновка, телевизор ЖК, чайник электрический, утюг, пылесос, плита электрическая,</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>#СДАМ СОБСТВЕННИК,  БЕЗ КОМИССИИ!!! 
 Первый ЖК от метро #Девяткино.
@@ -2542,775 +4109,581 @@
 Студия сдаётся только Гражданам РФ, славянам. 1-2чел.</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>28 апреля (обновлено 3 мая)</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>3 мая</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/4570015932238477312/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>29 м², студия</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>13 этаж из 19</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>Мурино, бульвар Менделеева, 3</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>60% — комиссия</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>8 мин.</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
         <is>
           <t>17 000 ₽</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>сдаётся студия , всё есть , возле метро 5 мин.</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>сдаётся студия , всё есть , возле метро 5 мин.</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>27 апреля</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L57" t="inlineStr">
         <is>
           <t>27 апреля</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/4174045018618697985/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>25 м², студия</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>ЖК «Охтинская дуга»</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>5 этаж из 16</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 13</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>17 000 ₽</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>Сдаётся студия на ул. Авиаторов Балтики, 13. До метро Девяткино 8-10 минут пешком. 17000 + залог в размере месячной оплаты+К/У(летом около 2000). Показ в любое удобное для Вас время.</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>Сдаётся студия на ул. Авиаторов Балтики, 13. До метро Девяткино 8-10 минут пешком. 17000 + залог в размере месячной оплаты+К/У(летом около 2000). Показ в любое удобное для Вас время.</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>27 апреля</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>27 апреля</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="M58" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/998630019230344193/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>25,5 м², студия</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>ЖК «Эланд»</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>17 этаж из 25</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Мурино, Привокзальная площадь, 3к4</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>7 мин.</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>16 000 ₽</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>Стильная молодежная квартира в 10 минутах от м. Девяткино. Уютно, очень чисто, светло. Дом комфорт-класса с закрытым двором, просторным холлом, охраной. В доме напротив расположен продуктовый магазин и банк. Много кафе и пр. молодежных мест в шаговой</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>Стильная молодежная квартира в 10 минутах от м. Девяткино. Уютно, очень чисто, светло. Дом комфорт-класса с закрытым двором, просторным холлом, охраной. В доме напротив расположен продуктовый магазин и банк. Много кафе и пр. молодежных мест в шаговой доступности. 
 Квартира свободна и готова к заселению!</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>25 апреля (обновлено вчера)</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>вчера</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>25 апреля (обновлено 14 мая)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>14 мая</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/5584238976163521280/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>27 м², студия</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>ЖК «Мечта»</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>13 этаж из 14</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>Мурино, Привокзальная площадь, 5Ак1</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>5 мин.</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
         <is>
           <t>18 000 ₽</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>Арт. 33626407 Сдаётся уютная, современная квартира-студия у метро Девяткино. В квартире есть вся необходимая мебель и бытовая техника. Сдается на длительный срок для 1-2/пары без животных. Стоимость 18000+Ку, залог 100% можно внести в два этапа,</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>Арт. 33626407 Сдаётся уютная, современная квартира-студия у метро Девяткино. В квартире есть вся необходимая мебель и бытовая техника. Сдается на длительный срок для 1-2/пары без животных. Стоимость 18000+Ку, залог 100% можно внести в два этапа, комиссия 50%</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>24 апреля (обновлено вчера)</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>вчера</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>24 апреля (обновлено 14 мая)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>14 мая</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/8506184542264097245/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>25,6 м², студия</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>10 этаж из 17</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Мурино, Охтинская аллея, 8</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Без комиссии</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
         <is>
           <t>15 900 ₽</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>просторная, чистая студия рядом с метро. Светлая - два окна и большая лоджия. все необходимое для комфортного проживания. Залог - 10000.</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>просторная, чистая студия рядом с метро. Светлая - два окна и большая лоджия.
 все необходимое для комфортного проживания. Залог - 10000.</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>22 апреля (обновлено 24 апреля)</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>24 апреля</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="M61" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/1800651338236935937/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>24 м², студия</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>ЖК «Мой город»</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>17 этаж из 23</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Мурино, Охтинская аллея, 2</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Без комиссии</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>8 мин.</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>30 м², студия</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Квартал «Солнечный»</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>11 этаж из 18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Мурино, бульвар Менделеева, 7к1</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
         <is>
           <t>18 000 ₽</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>На длительный срок сдается уютная, теплая квартира-студия. В ней можно пережить и карантин, и самоизоляцию. Квартира оборудована всем необходимым для жизни: холодильник, стиральная машина, плита, телевизор, wi-fi, мебель. На первом этаже дома</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>На длительный срок сдается уютная, теплая квартира-студия. В ней можно пережить и карантин, и самоизоляцию. 
-Квартира оборудована всем необходимым для жизни: холодильник, стиральная машина, плита, телевизор, wi-fi, мебель. На первом этаже дома находится магазин Дикси. Метро Девяткино в 5ти минутах ходьбы (500 метров). 
-Рядом с домом большое количество продуктовых магазинов, кафе, аптек. В соседнем доме есть пекарня, салон красоты. 
-Квартира сдается от собственника, без комиссии. При заключении договора взимается возвращаемый залог в размере 100% ежемесячного платежа. Ежемесячный платеж 18 000 руб, без учета коммунальных платежей.</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>20 апреля (обновлено вчера)</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>вчера</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>https://realty.yandex.ru/offer/1169652220466018560/?isExact=YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>26 м², студия</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>ЖК «Виктория (Мурино)»</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>23 этаж из 24</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Мурино, проспект Авиаторов Балтики, 7</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>50% — комиссия</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>6 мин.</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>18 000 ₽</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>Сдается светлая студия. Метро в пешей доступности. Все в хорошем состоянии, ремонта не требует. Есть балкон. Вместительный холодильник. Имеется стиральная машинка. Для 1-2 человек, пары.</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Сдается светлая студия. Метро в пешей доступности. Все в хорошем состоянии, ремонта не требует. Есть балкон. Вместительный холодильник. Имеется стиральная машинка. Для 1-2 человек, пары.</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>20 апреля</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>20 апреля</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>https://realty.yandex.ru/offer/6985477130801442304/?isExact=YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>30 м², студия</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Квартал «Солнечный»</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>11 этаж из 18</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Мурино, бульвар Менделеева, 7к1</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>19 000 ₽</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>Уютная квартира в 5-ти минутах ходьбы от метро. Рядом детский сад, школа, магазины, рестораны. Квартира полностью меблирована и готова к проживанию. В квартире уже подключен вайфай, имеется видеодомофон. Очень теплая и солнечная. Прекрасный вид из</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>Уютная квартира в 5-ти минутах ходьбы от метро. Рядом детский сад, школа, магазины, рестораны. Квартира полностью меблирована и готова к проживанию. В квартире уже подключен вайфай, имеется видеодомофон. Очень теплая и солнечная. Прекрасный вид из окна. 
 Только русским, не курящим, без животных. Можно семейной паре.
 К/у составляет примерно 1800-2500/мес, зависит от времени года и расхода по счетчикам.</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>20 апреля</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>20 апреля</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>20 апреля (обновлено 19 мая)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>19 мая</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/7518091553576752897/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>26 м², студия</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>ЖК «Девятый вал»</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>14 этаж из 26</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Мурино, проспект Авиаторов Балтики, 3к1</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>19 000 ₽</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>Цена снижена, квартира свободна! Строго без вредных привычек, только гражданам РФ. Квартира-студия расположена максимально близко к ст. метро Девяткино  5 минут пешком (Авиаторов Балтики дом 3 корпус 1). Есть всё необходимое для комфортной жизни. Из</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Цена снижена, квартира свободна! Строго без вредных привычек, только гражданам РФ. Квартира-студия расположена максимально близко к ст. метро Девяткино – 5 минут пешком (Авиаторов Балтики дом 3 корпус 1). Есть всё необходимое для комфортной жизни. Из мебели есть: Кухонный гарнитур, стол со стульями, гардеробная, 2 комода, двухспальная кровать, диван-кровать, зеркальный шкаф. Из бытовой техники есть: большой двухкамерный холодильник No Frost, варочная панель, микроволновая печь, электрочайник, стиральная машина, телевизор 81 см (Smart TV), Wi-Fi роутер (интернет подключен). Есть большая застеклённая отделанная лоджия 3 м2. В жилом комплексе, в котором расположена квартира, выполнена дизайнерская отделка лифтового холла на 1 этаже, 4 скоростных лифта, также имеется служба консъержей. Есть вся необходимая инфраструктура, два круглосуточных магазина (вход прямо со двора). Стоимость 19 т.р.+ коммуналка Залог 100%.</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>19 апреля</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>19 апреля</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>https://realty.yandex.ru/offer/5936064748196582401/?isExact=YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>25 м², студия</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>7 этаж из 24</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>Мурино, Охтинская аллея, 8</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
         <is>
           <t>18 000 ₽</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>Сдаю студию БЕЗ КОМИССИИ. Я собственник. В квартире имеется все необходимое для жизни(угловой большой диван, шкаф-купе, обувница, рабочее место).Варочная панель, духовка, холодильник, стиральная машина, жк телевизор. Покупал все для себя. Сдаю на</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>Сдаю студию БЕЗ КОМИССИИ. Я собственник. В квартире имеется все необходимое для жизни(угловой большой диван, шкаф-купе, обувница, рабочее место).Варочная панель, духовка, холодильник, стиральная машина, жк телевизор. Покупал все для себя. 
 Сдаю на длительный срок, ищу адекватных и платежеспособных жильцов. Цена 18.000+ку(лично у меня выходило летом 1800-1900, зимой 3000).</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>18 апреля</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>18 апреля</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/721532039918284288/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>30 м², студия</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>ЖК «Охтинская дуга»</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>7 этаж из 25</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 13</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
         <is>
           <t>14 000 ₽</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>Сдаем чистую и уютную квартиру-студию у метро Девяткино( 5 мин.пешком) Есть все необходимое для жизнр. Санузел совмещен с полноценной ванной. Большая застекленная лоджия. Для граждан РФ цена 15000+ку1500лето-3000 зима</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t xml:space="preserve">Сдаем чистую и уютную квартиру-студию у метро Девяткино( 5 мин.пешком) Есть все необходимое для жизнр. Санузел совмещен с полноценной ванной. Большая застекленная лоджия. Для граждан РФ цена 15000+ку1500лето-3000 зима
 </t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>17 апреля (обновлено 10 часов назад)</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>10 часов назад</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>17 апреля (обновлено 15 мая)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>15 мая</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/2263921345620525313/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>28 м², студия</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>11 этаж из 22</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 3</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>Без комиссии</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>8 мин.</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
         <is>
           <t>15 999 ₽</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>Сдаётся уютная однокомнатная квартира-студия рядом с метро 28м2, новый дом комфорт класса, высокие потолки. Есть все необходимое для комфортного проживания Собственник, без комиссии. Залог 1 мес. Цена до 1сентября, далее 17799</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>Сдаётся уютная однокомнатная квартира-студия рядом с метро
 28м2, новый дом комфорт класса, высокие потолки.
@@ -3318,67 +4691,67 @@
 Собственник, без комиссии. Залог 1 мес. Цена до 1сентября, далее 17799</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>16 апреля (обновлено 7 часов назад)</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>7 часов назад</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>16 апреля (обновлено 15 мая)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>15 мая</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/6251473959173074688/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>24 м², студия</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>23 этаж из 26</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>Мурино, бульвар Менделеева, 3</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>8 мин.</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>18 000 ₽</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>Состояние новой квартиры. Полностью меблирована. Раскладной 2-х спальный диван. Шкаф для одежды. Стеллаж с ячейками. Барная стойка. Кухонный гарнитур. Эл. плита с духовкой. 2-х камерный холодильник. Стиральная машина-автомат. Душевая кабина. Санузел</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t xml:space="preserve">Состояние новой квартиры. Полностью меблирована. Раскладной 2-х спальный диван. Шкаф для одежды. Стеллаж с ячейками. Барная стойка. Кухонный гарнитур. Эл. плита с духовкой. 2-х камерный холодильник. Стиральная машина-автомат. Душевая кабина. Санузел в кафеле. Прихожая. Добротная металлическая дверь. Светлый интерьер. 
 Застекленная лоджия, высокий 23-ий этаж в 26-этажном новом доме 2016 года постройки. панорамный вид на Мурино. Много солнца, много неба. 
@@ -3388,63 +4761,63 @@
 20.000 руб/мес + КУ (1700-1500 зима/лето). Счетчики на свет и воду. Интернет подключен. На длительный срок. </t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>15 апреля (обновлено 6 часов назад)</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>6 часов назад</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>15 апреля (обновлено 15 мая)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>15 мая</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/844766330789076993/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>32 м², студия</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>7 этаж из 24</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>Мурино, бульвар Менделеева, 3</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>8 мин.</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
         <is>
           <t>16 000 ₽</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>ВНИМАНИЕ - Цена аренды снижена ввиду текущей обстановки Сдается на длительный срок светлая студия, идеальный вариант для людей, желающих изолироваться и спокойно работать на дому. ОТ СОБСТВЕННИКА, просьба агентов не беспокоить. Находится:  Бульвар</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>❗❗❗ВНИМАНИЕ - Цена аренды снижена ввиду текущей обстановки❗❗❗
 👉Сдается на длительный срок светлая студия, идеальный вариант для людей, желающих изолироваться и спокойно работать на дому.
@@ -3474,132 +4847,132 @@
 Связаться со мной можно по телефону. С радостью отвечу на все ваши вопросы 😊</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>14 апреля (обновлено 21 апреля)</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>21 апреля</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="M67" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/7902646284470398977/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>25 м², студия</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>13 этаж из 21</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 1к1</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>6 мин.</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
         <is>
           <t>16 000 ₽</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>Сдается светлая студия. От дома до метро можно дойти пешком. Ремонт недавно освежили. Есть балкон. Холодильник. Есть стиральная машинка. Для 1-2 человек, пары.</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>Сдается светлая студия. От дома до метро можно дойти пешком. Ремонт недавно освежили. Есть балкон. Холодильник. Есть стиральная машинка. Для 1-2 человек, пары.</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>14 апреля</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L68" t="inlineStr">
         <is>
           <t>14 апреля</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/5631171756701070080/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>26,3 м², студия</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>ЖК «Виктория (Мурино)»</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>2 этаж из 22</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 9к3</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>Без комиссии</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>9 мин.</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
         <is>
           <t>23 000 ₽</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>Сдам квартиру-студию на длительный срок, от метро Девяткино-5 минут, рядом есть супермаркеты-5 минут, фитнес центр-10 минут, квартира в новом доме только после ремонта. Техника и не только: - Плита (духовка и варочная панель) - Холодильник -</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>Сдам квартиру-студию на длительный срок, от метро Девяткино-5 минут, рядом есть супермаркеты-5 минут, фитнес центр-10 минут, квартира в новом доме только после ремонта.
 Техника и не только:
@@ -3617,67 +4990,67 @@
 Залог: 100%-1 месяц</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>12 апреля</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L69" t="inlineStr">
         <is>
           <t>12 апреля</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/6299810863983513344/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>30 м², студия</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>ЖК «Виктория (Мурино)»</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>12 этаж из 15</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 5</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>5 мин.</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
         <is>
           <t>17 000 ₽</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>Всеволожский район. М. Девяткино. Мурино. Авиаторов Балтики 5. Сдаётся на длительный срок квартира-студия в пешей доступности от ст. М. Девяткино (5 мин). В квартире есть вся необходимая мебель и техника для комфортного отдыха. Застекленный балкон.</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t xml:space="preserve">Всеволожский район. М. Девяткино. Мурино. Авиаторов Балтики 5.
 Сдаётся на длительный срок квартира-студия в пешей доступности от ст. М. Девяткино (5 мин).
@@ -3691,67 +5064,67 @@
 Договор аренды </t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>10 апреля (обновлено 29 апреля)</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L70" t="inlineStr">
         <is>
           <t>29 апреля</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/5221652819913717504/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>25 м², студия</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>ЖК «Эланд»</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>4 этаж из 18</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>Мурино, Скандинавский проезд, 8к1</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>Без комиссии</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
         <is>
           <t>18 000 ₽</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>Сдам свою студию 5 мин от м. Девяткино, на длительный срок. Скандинавский пр-д 8к1, 4 этаж. ЖК комфорт-класса с закрытой охраняемой территорией. Благоустроенные дворы, паркинг, приятные соседи. В квартире есть мебель и техника. Тихо, светло,</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>Сдам свою студию 5 мин от м. Девяткино, на длительный срок.
 Скандинавский пр-д 8к1, 4 этаж.
@@ -3762,323 +5135,323 @@
 Сдаётся без комиссии.</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>10 апреля (обновлено 12 мая)</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L71" t="inlineStr">
         <is>
           <t>12 мая</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/1175227423806066688/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>27 м², студия</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>ЖК «Охтинская дуга»</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>10 этаж из 16</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 13</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
         <is>
           <t>15 000 ₽</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>Сдается уютная студия. От метро до дома можно дойти пешком. Не требует ремонта, все в хорошем состоянии. Квартира с хорошим балконом. Холодильник в рабочем состоянии. Вместительная стиральная машина. Для 1-2 человек, пары.</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>Сдается уютная студия. От метро до дома можно дойти пешком. Не требует ремонта, все в хорошем состоянии. Квартира с хорошим балконом. Холодильник в рабочем состоянии. Вместительная стиральная машина. Для 1-2 человек, пары.</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>9 апреля</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L72" t="inlineStr">
         <is>
           <t>9 апреля</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/3526212916778171904/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>28 м², студия</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Квартал «Солнечный»</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>16 этаж из 16</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>Мурино, бульвар Менделеева, 7к1</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
         <is>
           <t>19 500 ₽</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>Сдается светлая студия. В пешей доступности от метро. Все в отличном состоянии, не требует ремонта. Вместительный холодильник. Мощная стиральная машина. Для 1-2 человек, пары.</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>Сдается светлая студия. В пешей доступности от метро. Все в отличном состоянии, не требует ремонта. Вместительный холодильник. Мощная стиральная машина. Для 1-2 человек, пары.</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>8 апреля</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>8 апреля</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/4806441822755541248/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>26 м², студия</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>ЖК «Охтинская дуга»</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>8 этаж из 16</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 13</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
         <is>
           <t>17 000 ₽</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>Сдается светлая студия. Рядом с домом метро. Выполнен качественный ремонт. На кухне есть холодильник. Имеется хорошая стиральная машина. Для 1-2 человек, пары.</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>Сдается светлая студия. Рядом с домом метро. Выполнен качественный ремонт. На кухне есть холодильник. Имеется хорошая стиральная машина. Для 1-2 человек, пары.</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>7 апреля</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L74" t="inlineStr">
         <is>
           <t>7 апреля</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/2760478553918756352/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>30 м², студия</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>ЖК «Виктория (Мурино)»</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>7 этаж из 24</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 7</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>6 мин.</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
         <is>
           <t>16 000 ₽</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>Сдаётся квартира-студия, возле метро Девяткино, три минуты пешком до метро.По адресу Авиаторов Балтики 7. В квартире есть все необходимое для проживания. Оплата 17000 + ку 1500-2500р. Залог 10000.</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t xml:space="preserve">Сдаётся квартира-студия, возле метро Девяткино, три минуты пешком до метро.По адресу Авиаторов Балтики 7. В квартире есть все необходимое для проживания. Оплата 17000 + ку 1500-2500р. Залог 10000. </t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>5 апреля (обновлено 24 апреля)</t>
         </is>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>24 апреля</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/5441363067742302209/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>30 м², студия</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>ЖК «Виктория (Мурино)»</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>7 этаж из 20</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 7</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>6 мин.</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
         <is>
           <t>16 000 ₽</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>Всеволожский район. М. Девяткино. Мурино. Авиаторов Балтики 7. Сдаётся на длительный срок квартира-студия в пешей доступности от ст. М. Девяткино (2 мин). В квартире есть вся необходимая мебель и техника для комфортного проживания. Район с</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>Всеволожский район. М. Девяткино. Мурино. Авиаторов Балтики 7.
 Сдаётся на длительный срок квартира-студия в пешей доступности от ст. М. Девяткино (2 мин).
@@ -4091,320 +5464,320 @@
 Договор аренды</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>5 апреля (обновлено 24 апреля)</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>24 апреля</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/6813772005357921024/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>25 м², студия</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>ЖК «Виктория (Мурино)»</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>11 этаж из 18</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>Мурино, бульвар Менделеева, 1</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>6 мин.</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
         <is>
           <t>19 000 ₽</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>Сдается новая современная студия у метро! ЗАЕХАТЬ МОЖНО УЖЕ ЗАВТРА! Метро: Девяткино, 2 мин пешком (Менделеева д.1) Дом новый, мебель новая, все чистенькое! Делали для себя. 11 этаж, метро видно прямо под окном Техника: плита, стр.машина,</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>Сдается новая современная студия у метро! ЗАЕХАТЬ МОЖНО УЖЕ ЗАВТРА! Метро: Девяткино, 2 мин пешком (Менделеева д.1) Дом новый, мебель новая, все чистенькое! Делали для себя. 11 этаж, метро видно прямо под окном Техника: плита, стр.машина, холодильник, микроволновка. Условия: - 19т + ку + залог (залог возвращается при выезде! можно разбить на 2 части) - на длительный срок!</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>5 апреля</t>
         </is>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>5 апреля</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/459225895780676865/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>30 м², студия</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>4 этаж из 24</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>Мурино, бульвар Менделеева, 3</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>8 мин.</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
         <is>
           <t>17 000 ₽</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>Сдается светлая студия. От дома до метро пешая доступность. Выполнен качественный ремонт. С балконом. Вместительный холодильник. Есть стиральная машинка. Для 1-2 человек, пары.</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>Сдается светлая студия. От дома до метро пешая доступность. Выполнен качественный ремонт. С балконом. Вместительный холодильник. Есть стиральная машинка. Для 1-2 человек, пары.</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>2 апреля</t>
         </is>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>2 апреля</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/1842472207989341184/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>26 м², студия</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>14 этаж из 15</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>Мурино, Охтинская аллея, 8</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
         <is>
           <t>17 500 ₽</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>Сдается хорошая студия. Рядом метро. Не требует ремонта, все в отличном состоянии. Балкон есть. Есть мебель и бытовая техника. Для 1-2 человек, пары.</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>Сдается хорошая студия. Рядом метро. Не требует ремонта, все в отличном состоянии. Балкон есть. Есть мебель и бытовая техника. Для 1-2 человек, пары.</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>2 апреля</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>2 апреля</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/1609376204745939712/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>32 м², студия</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>ЖК «Охтинская дуга»</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>13 этаж из 17</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>Мурино, проспект Авиаторов Балтики, 13</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>10 мин.</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>18 000 ₽</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>Сдам просторную квартиру с мебелью. Есть стиральная машина, посудомойка, холодильник. 18000 +ку. Залог 100% возможно разбить по частям. Без детей и животных.</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>Сдам просторную квартиру с мебелью. Есть стиральная машина, посудомойка, холодильник. 
 18000 +ку. Залог 100% возможно разбить по частям.  Без детей и животных.</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>1 апреля (обновлено 13 апреля)</t>
         </is>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>13 апреля</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/1613703210849346305/?isExact=YES</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>32 м², студия</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>ЖК «Мой город»</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>16 этаж из 24</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>Мурино, бульвар Менделеева, 3</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>50% — комиссия</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>8 мин.</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
         <is>
           <t>17 000 ₽</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>Предлагается в аренду уютная студия в теплом доме в пешей доступности от метро Девяткино (5 минут). Сдается на длительный срок. В студии есть все необходимое для комфортного проживания: раскладной диван, кресло, шкаф, стенка, телевизор, комод,</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>Предлагается в аренду уютная студия в теплом доме в пешей доступности от метро Девяткино (5 минут). Сдается на длительный срок.
 В студии есть все необходимое для комфортного проживания:
@@ -4414,17 +5787,17 @@
 Район с развитой инфраструктурой, рядом есть много магазинов.</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>31 марта</t>
         </is>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>31 марта</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>https://realty.yandex.ru/offer/6883609351379360001/?isExact=YES</t>
         </is>
